--- a/test cases/messenger/case 10/receiver_ipv4.xlsx
+++ b/test cases/messenger/case 10/receiver_ipv4.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\WebRTC_Testbench\test cases\Messenger\case 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B0B0BE23-12E3-4911-9E0D-E9F6E4D5F204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58C92F6-495C-4FAB-B102-6C3517FE844D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="30984" windowHeight="16824"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Text Document" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'New Text Document'!$A$1:$Q$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'New Text Document'!$A$1:$T$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
   <si>
     <t>Address A</t>
   </si>
@@ -156,12 +156,96 @@
   <si>
     <t>31.13.71.128</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>26 IP addresses.</t>
+  </si>
+  <si>
+    <t>Not found: 10.0.0.251</t>
+  </si>
+  <si>
+    <t>Not found: 10.0.0.15</t>
+  </si>
+  <si>
+    <t>Not found: 10.0.0.140</t>
+  </si>
+  <si>
+    <t>Not found: 10.0.0.236</t>
+  </si>
+  <si>
+    <t>Not found: 169.254.100.1</t>
+  </si>
+  <si>
+    <t>Not found: 10.0.0.1</t>
+  </si>
+  <si>
+    <t>Not found: 169.254.156.62</t>
+  </si>
+  <si>
+    <t>Not found: 0.0.0.0</t>
+  </si>
+  <si>
+    <t>Not found: 10.0.0.255</t>
+  </si>
+  <si>
+    <t>ATT-INTERNET4: 107.122.192.98</t>
+  </si>
+  <si>
+    <t>GOOGLE: 142.251.32.110</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 157.240.241.53</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 157.240.245.22</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 157.240.245.56</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 157.240.245.58</t>
+  </si>
+  <si>
+    <t>APPLE-ENGINEERING: 17.57.147.7</t>
+  </si>
+  <si>
+    <t>Not found: 192.0.0.6</t>
+  </si>
+  <si>
+    <t>Not found: 192.168.0.20</t>
+  </si>
+  <si>
+    <t>Not found: 224.0.0.251</t>
+  </si>
+  <si>
+    <t>Not found: 239.255.255.250</t>
+  </si>
+  <si>
+    <t>Not found: 255.255.255.255</t>
+  </si>
+  <si>
+    <t>AMAZON-02: 3.142.229.116</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 31.13.71.128</t>
+  </si>
+  <si>
+    <t>Beijing Guanghuan Xinwang Digital: 52.80.53.181</t>
+  </si>
+  <si>
+    <t>AMAZON-AES: 54.80.119.162</t>
+  </si>
+  <si>
+    <t>Beijing Guanghuan Xinwang Digital: 71.132.18.48</t>
+  </si>
+  <si>
+    <t>COMCAST-7922: 73.16.29.250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1124,13 +1208,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1138,9 +1222,10 @@
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="7.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1192,8 +1277,14 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1239,8 +1330,14 @@
       <c r="O2">
         <v>0</v>
       </c>
+      <c r="S2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1286,8 +1383,14 @@
       <c r="O3">
         <v>2.49799999999922E-3</v>
       </c>
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1339,8 +1442,14 @@
       <c r="Q4">
         <v>0</v>
       </c>
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1392,8 +1501,14 @@
       <c r="Q5">
         <v>31127</v>
       </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1445,8 +1560,14 @@
       <c r="Q6">
         <v>164142</v>
       </c>
+      <c r="S6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1498,8 +1619,14 @@
       <c r="Q7" s="1">
         <v>17</v>
       </c>
+      <c r="S7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1551,8 +1678,14 @@
       <c r="Q8" s="1">
         <v>79</v>
       </c>
+      <c r="S8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,8 +1731,14 @@
       <c r="O9" s="1">
         <v>3.7100000000123102E-4</v>
       </c>
+      <c r="S9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1651,8 +1790,14 @@
       <c r="Q10" s="1">
         <v>416</v>
       </c>
+      <c r="S10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1704,8 +1849,14 @@
       <c r="Q11">
         <v>1839</v>
       </c>
+      <c r="S11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1757,8 +1908,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
+      <c r="S12" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1810,8 +1967,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
+      <c r="S13" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1863,8 +2026,14 @@
       <c r="Q14">
         <v>0</v>
       </c>
+      <c r="S14" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1910,8 +2079,14 @@
       <c r="O15">
         <v>0</v>
       </c>
+      <c r="S15" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1963,8 +2138,14 @@
       <c r="Q16">
         <v>0</v>
       </c>
+      <c r="S16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2016,8 +2197,14 @@
       <c r="Q17">
         <v>0</v>
       </c>
+      <c r="S17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T17" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2063,8 +2250,14 @@
       <c r="O18">
         <v>2.5649999999970401E-3</v>
       </c>
+      <c r="S18" t="s">
+        <v>50</v>
+      </c>
+      <c r="T18" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2116,8 +2309,14 @@
       <c r="Q19">
         <v>0</v>
       </c>
+      <c r="S19" t="s">
+        <v>51</v>
+      </c>
+      <c r="T19" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2169,8 +2368,14 @@
       <c r="Q20">
         <v>0</v>
       </c>
+      <c r="S20" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2222,8 +2427,14 @@
       <c r="Q21">
         <v>0</v>
       </c>
+      <c r="S21" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2269,8 +2480,14 @@
       <c r="O22">
         <v>6.0599999999766396E-4</v>
       </c>
+      <c r="S22" t="s">
+        <v>45</v>
+      </c>
+      <c r="T22" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2322,8 +2539,14 @@
       <c r="Q23" s="1">
         <v>17</v>
       </c>
+      <c r="S23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2375,8 +2598,14 @@
       <c r="Q24">
         <v>66242</v>
       </c>
+      <c r="S24" t="s">
+        <v>45</v>
+      </c>
+      <c r="T24" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2422,8 +2651,14 @@
       <c r="O25">
         <v>9.6700000000282595E-4</v>
       </c>
+      <c r="S25" t="s">
+        <v>45</v>
+      </c>
+      <c r="T25" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2475,8 +2710,14 @@
       <c r="Q26">
         <v>35063</v>
       </c>
+      <c r="S26" t="s">
+        <v>45</v>
+      </c>
+      <c r="T26" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2528,9 +2769,15 @@
       <c r="Q27">
         <v>281</v>
       </c>
+      <c r="S27" t="s">
+        <v>45</v>
+      </c>
+      <c r="T27" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q27">
+  <autoFilter ref="A1:T27" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <colorFilter dxfId="0"/>
     </filterColumn>
@@ -2540,5 +2787,6 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>